--- a/extrapolation.xlsx
+++ b/extrapolation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\istei\HESSENBOX\2-Projekte (Björn Vollan)\Paper SustUse\Solomon Relational Values\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\istei\HESSENBOX\2-Projekte (Björn Vollan)\Paper SustUse\Solomon Relational Values\replication_package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A62B0B-ADEE-48D9-90F2-A712D5D46D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF28381-058E-49FB-A833-C1DDA2893DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Ethnicity</t>
   </si>
@@ -90,6 +90,30 @@
   </si>
   <si>
     <t>Amount (Extra) in USD</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Treated</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>predicted budget</t>
+  </si>
+  <si>
+    <t>for climate change management in 2021/2022</t>
+  </si>
+  <si>
+    <t>total budget</t>
+  </si>
+  <si>
+    <t>Increase in treatment in percent of current spending on development budget</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
   </si>
 </sst>
 </file>
@@ -100,7 +124,7 @@
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;0.00,,"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +133,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -137,7 +169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -145,11 +177,17 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -431,16 +469,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
@@ -451,16 +489,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
@@ -595,7 +633,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <f>J2/J4</f>
         <v>0.96923076923076934</v>
       </c>
@@ -604,7 +642,7 @@
       <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <f>J3/J4</f>
         <v>3.0769230769230771E-2</v>
       </c>
@@ -670,14 +708,14 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -700,13 +738,13 @@
       <c r="A22" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>8.8300000000000003E-2</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>8.2100000000000006E-2</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>9.4500000000000001E-2</v>
       </c>
       <c r="E22" s="4"/>
@@ -717,13 +755,13 @@
       <c r="A23" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>0.10970000000000001</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>9.9599999999999994E-2</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>0.1198</v>
       </c>
       <c r="E23" s="4"/>
@@ -740,15 +778,15 @@
       <c r="A24" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <f>B22*$B$15+$B$16*B23</f>
         <v>9.4292000000000001E-2</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <f t="shared" ref="C24:D24" si="2">C22*$B$15+$B$16*C23</f>
         <v>8.7000000000000008E-2</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <f t="shared" si="2"/>
         <v>0.10158400000000001</v>
       </c>
@@ -787,17 +825,23 @@
       <c r="A26" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <f>B22*$J$7+B23*$J$8</f>
         <v>8.8958461538461556E-2</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <f t="shared" ref="C26:D26" si="4">C22*$J$7+C23*$J$8</f>
         <v>8.2638461538461563E-2</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <f t="shared" si="4"/>
         <v>9.5278461538461562E-2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="4">
+        <v>56000000000</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -816,16 +860,148 @@
         <f t="shared" si="5"/>
         <v>47239061.230769239</v>
       </c>
+      <c r="G27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="4">
+        <v>906000000</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
     </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <f>B36/H27</f>
+        <v>2.5238673730684327</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="B31" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="F31" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="6">
+        <f>D36/H27</f>
+        <v>0.5513317439293598</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="5">
+        <v>5.7011140000000002E-2</v>
+      </c>
+      <c r="C33" s="5">
+        <v>6.5930900000000001E-2</v>
+      </c>
+      <c r="D33" s="5">
+        <f>C33-B33</f>
+        <v>8.9197599999999988E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="5">
+        <v>5.108E-2</v>
+      </c>
+      <c r="C34" s="5">
+        <v>5.756E-2</v>
+      </c>
+      <c r="D34" s="5">
+        <v>-1.2999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="5">
+        <v>6.2939999999999996E-2</v>
+      </c>
+      <c r="C35" s="5">
+        <v>7.4289999999999995E-2</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1.9199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="4">
+        <f>B33*$H$26-$H$27</f>
+        <v>2286623840</v>
+      </c>
+      <c r="C36" s="4">
+        <f>C33*$H$26-$H$27</f>
+        <v>2786130400</v>
+      </c>
+      <c r="D36" s="4">
+        <f>D33*$H$26</f>
+        <v>499506559.99999994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="4">
+        <f>B34*$H$26-$H$27</f>
+        <v>1954480000</v>
+      </c>
+      <c r="C37" s="4">
+        <f>C34*$H$26-$H$27</f>
+        <v>2317360000</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" ref="D37:D38" si="6">D34*$H$26</f>
+        <v>-72800000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="4">
+        <f>B35*$H$26-$H$27</f>
+        <v>2618640000</v>
+      </c>
+      <c r="C38" s="4">
+        <f>C35*$H$26-$H$27</f>
+        <v>3254239999.9999995</v>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" si="6"/>
+        <v>1075200000</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="E20:G20"/>
+    <mergeCell ref="B31:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
